--- a/HLS_man/COP21/COP21_man_nepal.xlsx
+++ b/HLS_man/COP21/COP21_man_nepal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C259094-26EE-43ED-B764-87B01B16BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B01A42-B141-4BCB-ABC0-5F049D25F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>COP21_nepal</t>
   </si>
@@ -131,9 +131,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Nepal contributes less than 0.1 percent of global green house gas emission, yet we suffer the most. Hence, I strongly call upon the countries with higher emissions to take leadership in reducing their emissions to secure a safer planet.</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
     <t xml:space="preserve">n.a. </t>
   </si>
   <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>policy target, other(temperature)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Commonly agreed upon reaching of a specific set target, everyone should aim to reach this.  </t>
   </si>
   <si>
@@ -158,13 +149,7 @@
     <t>prioritarian</t>
   </si>
   <si>
-    <t>support of the most vulnerable, thus prioritarian</t>
-  </si>
-  <si>
     <t>emissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indirect reference to the main principles of the convention. These are defined to be prioritarian. </t>
   </si>
   <si>
     <t>Therefore, I call upon all
@@ -180,10 +165,31 @@
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>Referencing the need for a legally binding target, thus sufficientarian</t>
-  </si>
-  <si>
     <t>present</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to increase the support of the most vulnerable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal contributes less than 0.1 percent of global green house gas emission, yet we suffer the most. </t>
+  </si>
+  <si>
+    <t>Hence, I strongly call upon the countries with higher emissions to take leadership in reducing their emissions to secure a safer planet.</t>
+  </si>
+  <si>
+    <t>other(countries with higer emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication of foundational belief that others that emit more have the responsibility to take on action. </t>
+  </si>
+  <si>
+    <t>Call for a fair agreement, indicating egalitarian</t>
+  </si>
+  <si>
+    <t>policy target, temperature</t>
   </si>
 </sst>
 </file>
@@ -202,6 +208,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -552,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,7 +599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -600,7 +607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -608,7 +615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -616,7 +623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -624,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -632,7 +639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -648,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -656,7 +663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,25 +671,25 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -690,25 +697,25 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -716,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -724,7 +731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -732,113 +739,121 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="G21" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>

--- a/HLS_man/COP21/COP21_man_nepal.xlsx
+++ b/HLS_man/COP21/COP21_man_nepal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B01A42-B141-4BCB-ABC0-5F049D25F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0901552-328D-4135-BDD0-B95C96CA10A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>COP21_nepal</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -125,24 +119,6 @@
     <t>Thank you very much.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.a. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commonly agreed upon reaching of a specific set target, everyone should aim to reach this.  </t>
-  </si>
-  <si>
     <t>moral responsibility</t>
   </si>
   <si>
@@ -165,31 +141,52 @@
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urge to increase the support of the most vulnerable. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepal contributes less than 0.1 percent of global green house gas emission, yet we suffer the most. </t>
   </si>
   <si>
     <t>Hence, I strongly call upon the countries with higher emissions to take leadership in reducing their emissions to secure a safer planet.</t>
   </si>
   <si>
-    <t>other(countries with higer emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indication of foundational belief that others that emit more have the responsibility to take on action. </t>
-  </si>
-  <si>
-    <t>Call for a fair agreement, indicating egalitarian</t>
-  </si>
-  <si>
-    <t>policy target, temperature</t>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription to take action and responsibility for a common goal that is outcome based and in the benefit of all. </t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to increase the support of the most vulnerable, motivated that this is morally right.  </t>
+  </si>
+  <si>
+    <t>proportional to contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication of need to take on action, motivated by the goal of securing a safer planet, in the benefit of all. </t>
+  </si>
+  <si>
+    <t>financial mechanism</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>Call for a fair, equity based, agreement that counts for all, motivated by ensuring the benefit of all.</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -559,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +567,7 @@
     <col min="1" max="1" width="36.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,277 +581,259 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
+      <c r="B22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
